--- a/Data/SalesTrend/SalesTrend_CRP.xlsx
+++ b/Data/SalesTrend/SalesTrend_CRP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,132 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>CRP10</t>
+  </si>
+  <si>
+    <t>CRP11</t>
+  </si>
+  <si>
+    <t>CRP12</t>
+  </si>
+  <si>
+    <t>CRP13</t>
+  </si>
+  <si>
+    <t>CRP14</t>
+  </si>
+  <si>
+    <t>CRP15</t>
+  </si>
+  <si>
+    <t>CRP16</t>
+  </si>
+  <si>
+    <t>CRP17</t>
+  </si>
+  <si>
+    <t>CRP20</t>
+  </si>
+  <si>
+    <t>CRP21</t>
+  </si>
+  <si>
+    <t>CRP22</t>
+  </si>
+  <si>
+    <t>CRP23</t>
+  </si>
+  <si>
+    <t>CRP24</t>
+  </si>
+  <si>
+    <t>CRP25</t>
+  </si>
+  <si>
+    <t>CRP26</t>
+  </si>
+  <si>
+    <t>CRP30</t>
+  </si>
+  <si>
+    <t>CRP31</t>
+  </si>
+  <si>
+    <t>CRP32</t>
+  </si>
+  <si>
+    <t>CRP33</t>
+  </si>
+  <si>
+    <t>CRP34</t>
+  </si>
+  <si>
+    <t>CRP35</t>
+  </si>
+  <si>
+    <t>CRP36</t>
+  </si>
+  <si>
+    <t>CRP37</t>
+  </si>
+  <si>
+    <t>CRP40</t>
+  </si>
+  <si>
+    <t>CRP41</t>
+  </si>
+  <si>
+    <t>CRP42</t>
+  </si>
+  <si>
+    <t>CRP43</t>
+  </si>
+  <si>
+    <t>CRP44</t>
+  </si>
+  <si>
+    <t>CRP45</t>
+  </si>
+  <si>
+    <t>CRP46</t>
+  </si>
+  <si>
+    <t>CRP50</t>
+  </si>
+  <si>
+    <t>CRP51</t>
+  </si>
+  <si>
+    <t>CRP52</t>
+  </si>
+  <si>
+    <t>CRP53</t>
+  </si>
+  <si>
+    <t>CRP54</t>
+  </si>
+  <si>
+    <t>CRP60</t>
+  </si>
+  <si>
+    <t>CRP61</t>
+  </si>
+  <si>
+    <t>CRP62</t>
+  </si>
+  <si>
+    <t>CRP63</t>
+  </si>
+  <si>
+    <t>CRP64</t>
+  </si>
+  <si>
+    <t>CRP65</t>
   </si>
 </sst>
 </file>
@@ -401,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +565,1350 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>68.75</v>
+      </c>
+      <c r="C2">
+        <v>67.08</v>
+      </c>
+      <c r="D2">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="E2">
+        <v>55.23</v>
+      </c>
+      <c r="F2">
+        <v>100.76</v>
+      </c>
+      <c r="G2">
+        <v>62.41</v>
+      </c>
+      <c r="H2">
+        <v>51.44</v>
+      </c>
+      <c r="I2">
+        <v>31.08</v>
+      </c>
+      <c r="J2">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>33.52</v>
+      </c>
+      <c r="C3">
+        <v>30.39</v>
+      </c>
+      <c r="D3">
+        <v>37.06</v>
+      </c>
+      <c r="E3">
+        <v>16.67</v>
+      </c>
+      <c r="F3">
+        <v>72.77</v>
+      </c>
+      <c r="G3">
+        <v>62.25</v>
+      </c>
+      <c r="H3">
+        <v>33.25</v>
+      </c>
+      <c r="I3">
+        <v>15.93</v>
+      </c>
+      <c r="J3">
+        <v>25.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>10.54</v>
+      </c>
+      <c r="C4">
+        <v>44.93</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>39.08</v>
+      </c>
+      <c r="I4">
+        <v>43.85</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>29.71</v>
+      </c>
+      <c r="C5">
+        <v>59.19</v>
+      </c>
+      <c r="D5">
+        <v>82.86</v>
+      </c>
+      <c r="E5">
+        <v>51.67</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="H5">
+        <v>21.71</v>
+      </c>
+      <c r="I5">
+        <v>3.34</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>12.17</v>
+      </c>
+      <c r="C6">
+        <v>9.75</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>50.41</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>24.85</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>88.34999999999999</v>
+      </c>
+      <c r="C7">
+        <v>10.67</v>
+      </c>
+      <c r="D7">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>32.29</v>
+      </c>
+      <c r="H7">
+        <v>36.79</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>57.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>12.3</v>
+      </c>
+      <c r="C8">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="D8">
+        <v>23.68</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>516.67</v>
+      </c>
+      <c r="G8">
+        <v>33.33</v>
+      </c>
+      <c r="H8">
+        <v>42.18</v>
+      </c>
+      <c r="I8">
+        <v>34.31</v>
+      </c>
+      <c r="J8">
+        <v>69.81999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>10.81</v>
+      </c>
+      <c r="C9">
+        <v>7.19</v>
+      </c>
+      <c r="D9">
+        <v>19.11</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="H9">
+        <v>30.19</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>38.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>59.39</v>
+      </c>
+      <c r="C10">
+        <v>119.6</v>
+      </c>
+      <c r="D10">
+        <v>63.94</v>
+      </c>
+      <c r="E10">
+        <v>60.19</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>132.48</v>
+      </c>
+      <c r="H10">
+        <v>72.48</v>
+      </c>
+      <c r="I10">
+        <v>29.73</v>
+      </c>
+      <c r="J10">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>53.76</v>
+      </c>
+      <c r="C11">
+        <v>86.89</v>
+      </c>
+      <c r="D11">
+        <v>107.5</v>
+      </c>
+      <c r="E11">
+        <v>37.07</v>
+      </c>
+      <c r="F11">
+        <v>143.52</v>
+      </c>
+      <c r="G11">
+        <v>59.81</v>
+      </c>
+      <c r="H11">
+        <v>63.36</v>
+      </c>
+      <c r="I11">
+        <v>39.61</v>
+      </c>
+      <c r="J11">
+        <v>88.40000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>30.06</v>
+      </c>
+      <c r="C12">
+        <v>52.58</v>
+      </c>
+      <c r="D12">
+        <v>123.37</v>
+      </c>
+      <c r="E12">
+        <v>155</v>
+      </c>
+      <c r="F12">
+        <v>86.11</v>
+      </c>
+      <c r="G12">
+        <v>24.6</v>
+      </c>
+      <c r="H12">
+        <v>60.71</v>
+      </c>
+      <c r="I12">
+        <v>25.62</v>
+      </c>
+      <c r="J12">
+        <v>80.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>63.04</v>
+      </c>
+      <c r="C13">
+        <v>79.31</v>
+      </c>
+      <c r="D13">
+        <v>121.86</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>147.62</v>
+      </c>
+      <c r="G13">
+        <v>27.93</v>
+      </c>
+      <c r="H13">
+        <v>78.12</v>
+      </c>
+      <c r="I13">
+        <v>40.68</v>
+      </c>
+      <c r="J13">
+        <v>187.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>52.07</v>
+      </c>
+      <c r="C14">
+        <v>148.1</v>
+      </c>
+      <c r="D14">
+        <v>210.76</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>114.81</v>
+      </c>
+      <c r="G14">
+        <v>98.41</v>
+      </c>
+      <c r="H14">
+        <v>49.08</v>
+      </c>
+      <c r="I14">
+        <v>28.88</v>
+      </c>
+      <c r="J14">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>53.08</v>
+      </c>
+      <c r="C15">
+        <v>86.73</v>
+      </c>
+      <c r="D15">
+        <v>25.33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>147.62</v>
+      </c>
+      <c r="G15">
+        <v>62</v>
+      </c>
+      <c r="H15">
+        <v>25.24</v>
+      </c>
+      <c r="I15">
+        <v>43.09</v>
+      </c>
+      <c r="J15">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>76.7</v>
+      </c>
+      <c r="C16">
+        <v>57.71</v>
+      </c>
+      <c r="D16">
+        <v>85.20999999999999</v>
+      </c>
+      <c r="E16">
+        <v>51.67</v>
+      </c>
+      <c r="F16">
+        <v>258.33</v>
+      </c>
+      <c r="G16">
+        <v>89.86</v>
+      </c>
+      <c r="H16">
+        <v>92.26000000000001</v>
+      </c>
+      <c r="I16">
+        <v>17.09</v>
+      </c>
+      <c r="J16">
+        <v>126.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>33.09</v>
+      </c>
+      <c r="C17">
+        <v>135.37</v>
+      </c>
+      <c r="D17">
+        <v>70.89</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>135.96</v>
+      </c>
+      <c r="H17">
+        <v>65.47</v>
+      </c>
+      <c r="I17">
+        <v>104.68</v>
+      </c>
+      <c r="J17">
+        <v>81.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>56.75</v>
+      </c>
+      <c r="C18">
+        <v>27.52</v>
+      </c>
+      <c r="D18">
+        <v>53.52</v>
+      </c>
+      <c r="E18">
+        <v>52.79</v>
+      </c>
+      <c r="F18">
+        <v>147.62</v>
+      </c>
+      <c r="G18">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>54.66</v>
+      </c>
+      <c r="I18">
+        <v>25.11</v>
+      </c>
+      <c r="J18">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>21.75</v>
+      </c>
+      <c r="C19">
+        <v>40.46</v>
+      </c>
+      <c r="D19">
+        <v>42.7</v>
+      </c>
+      <c r="E19">
+        <v>60.19</v>
+      </c>
+      <c r="F19">
+        <v>258.33</v>
+      </c>
+      <c r="G19">
+        <v>23.48</v>
+      </c>
+      <c r="H19">
+        <v>52.99</v>
+      </c>
+      <c r="I19">
+        <v>45.99</v>
+      </c>
+      <c r="J19">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>52.13</v>
+      </c>
+      <c r="C20">
+        <v>54.16</v>
+      </c>
+      <c r="D20">
+        <v>17.26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>103.33</v>
+      </c>
+      <c r="G20">
+        <v>54.39</v>
+      </c>
+      <c r="H20">
+        <v>35.44</v>
+      </c>
+      <c r="I20">
+        <v>13.77</v>
+      </c>
+      <c r="J20">
+        <v>56.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>65.43000000000001</v>
+      </c>
+      <c r="C21">
+        <v>12.86</v>
+      </c>
+      <c r="D21">
+        <v>83.59</v>
+      </c>
+      <c r="E21">
+        <v>120.39</v>
+      </c>
+      <c r="F21">
+        <v>413.33</v>
+      </c>
+      <c r="G21">
+        <v>34.44</v>
+      </c>
+      <c r="H21">
+        <v>29.76</v>
+      </c>
+      <c r="I21">
+        <v>42.42</v>
+      </c>
+      <c r="J21">
+        <v>40.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>170.52</v>
+      </c>
+      <c r="C22">
+        <v>16.56</v>
+      </c>
+      <c r="D22">
+        <v>130.57</v>
+      </c>
+      <c r="E22">
+        <v>234.37</v>
+      </c>
+      <c r="F22">
+        <v>103.33</v>
+      </c>
+      <c r="G22">
+        <v>17.51</v>
+      </c>
+      <c r="H22">
+        <v>147.62</v>
+      </c>
+      <c r="I22">
+        <v>25.79</v>
+      </c>
+      <c r="J22">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>14.46</v>
+      </c>
+      <c r="C23">
+        <v>10.01</v>
+      </c>
+      <c r="D23">
+        <v>42.06</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>10.67</v>
+      </c>
+      <c r="I23">
+        <v>37.77</v>
+      </c>
+      <c r="J23">
+        <v>20.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>71.73</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>45.2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>129.17</v>
+      </c>
+      <c r="G24">
+        <v>165.33</v>
+      </c>
+      <c r="H24">
+        <v>28.7</v>
+      </c>
+      <c r="I24">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="J24">
+        <v>78.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>37.46</v>
+      </c>
+      <c r="C25">
+        <v>43.13</v>
+      </c>
+      <c r="D25">
+        <v>18.52</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>64.58</v>
+      </c>
+      <c r="G25">
+        <v>20.67</v>
+      </c>
+      <c r="H25">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="I25">
+        <v>9.73</v>
+      </c>
+      <c r="J25">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>162.39</v>
+      </c>
+      <c r="C26">
+        <v>156.73</v>
+      </c>
+      <c r="D26">
+        <v>99.64</v>
+      </c>
+      <c r="E26">
+        <v>180.64</v>
+      </c>
+      <c r="F26">
+        <v>108.14</v>
+      </c>
+      <c r="G26">
+        <v>115.16</v>
+      </c>
+      <c r="H26">
+        <v>68.08</v>
+      </c>
+      <c r="I26">
+        <v>58.42</v>
+      </c>
+      <c r="J26">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>127.77</v>
+      </c>
+      <c r="C27">
+        <v>68.13</v>
+      </c>
+      <c r="D27">
+        <v>78.47</v>
+      </c>
+      <c r="E27">
+        <v>170.55</v>
+      </c>
+      <c r="F27">
+        <v>271.93</v>
+      </c>
+      <c r="G27">
+        <v>295.24</v>
+      </c>
+      <c r="H27">
+        <v>121.16</v>
+      </c>
+      <c r="I27">
+        <v>195.85</v>
+      </c>
+      <c r="J27">
+        <v>48.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>295.4</v>
+      </c>
+      <c r="C28">
+        <v>345.53</v>
+      </c>
+      <c r="D28">
+        <v>116.6</v>
+      </c>
+      <c r="E28">
+        <v>473.61</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>70.78</v>
+      </c>
+      <c r="H28">
+        <v>35.17</v>
+      </c>
+      <c r="I28">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="J28">
+        <v>26.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>110.94</v>
+      </c>
+      <c r="C29">
+        <v>168.6</v>
+      </c>
+      <c r="D29">
+        <v>129.96</v>
+      </c>
+      <c r="E29">
+        <v>292.78</v>
+      </c>
+      <c r="F29">
+        <v>51.67</v>
+      </c>
+      <c r="G29">
+        <v>109.6</v>
+      </c>
+      <c r="H29">
+        <v>93.29000000000001</v>
+      </c>
+      <c r="I29">
+        <v>68.83</v>
+      </c>
+      <c r="J29">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>148.47</v>
+      </c>
+      <c r="C30">
+        <v>111.28</v>
+      </c>
+      <c r="D30">
+        <v>238.19</v>
+      </c>
+      <c r="E30">
+        <v>60.19</v>
+      </c>
+      <c r="F30">
+        <v>258.33</v>
+      </c>
+      <c r="G30">
+        <v>186</v>
+      </c>
+      <c r="H30">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="I30">
+        <v>31.11</v>
+      </c>
+      <c r="J30">
+        <v>131.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>90.87</v>
+      </c>
+      <c r="C31">
+        <v>42.1</v>
+      </c>
+      <c r="D31">
+        <v>23.07</v>
+      </c>
+      <c r="E31">
+        <v>60.19</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>64.58</v>
+      </c>
+      <c r="H31">
+        <v>37.99</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>54.86</v>
+      </c>
+      <c r="C32">
+        <v>27.26</v>
+      </c>
+      <c r="D32">
+        <v>22.72</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>19.5</v>
+      </c>
+      <c r="H32">
+        <v>37.27</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>48.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>40.16</v>
+      </c>
+      <c r="C33">
+        <v>48.38</v>
+      </c>
+      <c r="D33">
+        <v>63.1</v>
+      </c>
+      <c r="E33">
+        <v>28.57</v>
+      </c>
+      <c r="F33">
+        <v>40.26</v>
+      </c>
+      <c r="G33">
+        <v>35.99</v>
+      </c>
+      <c r="H33">
+        <v>57.52</v>
+      </c>
+      <c r="I33">
+        <v>24.74</v>
+      </c>
+      <c r="J33">
+        <v>58.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>46.85</v>
+      </c>
+      <c r="C34">
+        <v>56.78</v>
+      </c>
+      <c r="D34">
+        <v>57.04</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>12.45</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>55.1</v>
+      </c>
+      <c r="C35">
+        <v>16.56</v>
+      </c>
+      <c r="D35">
+        <v>73.45</v>
+      </c>
+      <c r="E35">
+        <v>120.39</v>
+      </c>
+      <c r="F35">
+        <v>86.11</v>
+      </c>
+      <c r="G35">
+        <v>39.74</v>
+      </c>
+      <c r="H35">
+        <v>50.27</v>
+      </c>
+      <c r="I35">
+        <v>16.01</v>
+      </c>
+      <c r="J35">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>17.8</v>
+      </c>
+      <c r="C36">
+        <v>65.56</v>
+      </c>
+      <c r="D36">
+        <v>70.31</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>83.78</v>
+      </c>
+      <c r="H36">
+        <v>103.49</v>
+      </c>
+      <c r="I36">
+        <v>46.8</v>
+      </c>
+      <c r="J36">
+        <v>113.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>39.23</v>
+      </c>
+      <c r="C37">
+        <v>57.41</v>
+      </c>
+      <c r="D37">
+        <v>47.71</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>68.89</v>
+      </c>
+      <c r="G37">
+        <v>21.09</v>
+      </c>
+      <c r="H37">
+        <v>61.03</v>
+      </c>
+      <c r="I37">
+        <v>23.44</v>
+      </c>
+      <c r="J37">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>45.26</v>
+      </c>
+      <c r="C38">
+        <v>38.92</v>
+      </c>
+      <c r="D38">
+        <v>44.57</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>95.38</v>
+      </c>
+      <c r="G38">
+        <v>47.88</v>
+      </c>
+      <c r="H38">
+        <v>29.72</v>
+      </c>
+      <c r="I38">
+        <v>23.7</v>
+      </c>
+      <c r="J38">
+        <v>55.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>53.78</v>
+      </c>
+      <c r="C39">
+        <v>42.86</v>
+      </c>
+      <c r="D39">
+        <v>45.18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>51.03</v>
+      </c>
+      <c r="H39">
+        <v>30.05</v>
+      </c>
+      <c r="I39">
+        <v>38.65</v>
+      </c>
+      <c r="J39">
+        <v>99.09</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>31.25</v>
+      </c>
+      <c r="C40">
+        <v>28.9</v>
+      </c>
+      <c r="D40">
+        <v>22.14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>275.56</v>
+      </c>
+      <c r="G40">
+        <v>15.9</v>
+      </c>
+      <c r="H40">
+        <v>26.63</v>
+      </c>
+      <c r="I40">
+        <v>55.58</v>
+      </c>
+      <c r="J40">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>54.72</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>103.33</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>13.18</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>38.27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>56.31</v>
+      </c>
+      <c r="C42">
+        <v>83.87</v>
+      </c>
+      <c r="D42">
+        <v>62.02</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>129.17</v>
+      </c>
+      <c r="G42">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="H42">
+        <v>73.95999999999999</v>
+      </c>
+      <c r="I42">
+        <v>23.83</v>
+      </c>
+      <c r="J42">
+        <v>65.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>42.47</v>
+      </c>
+      <c r="D43">
+        <v>30.04</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>121.57</v>
+      </c>
+      <c r="H43">
+        <v>12.57</v>
+      </c>
+      <c r="I43">
+        <v>5.76</v>
+      </c>
+      <c r="J43">
+        <v>23.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SalesTrend/SalesTrend_CRP.xlsx
+++ b/Data/SalesTrend/SalesTrend_CRP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>BEMPID</t>
+  </si>
+  <si>
+    <t>AROTIDE</t>
+  </si>
+  <si>
+    <t>FOBUNID</t>
   </si>
   <si>
     <t>CRP</t>
@@ -527,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,147 +573,192 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>68.75</v>
+        <v>68.13</v>
       </c>
       <c r="C2">
-        <v>67.08</v>
+        <v>59.38</v>
       </c>
       <c r="D2">
-        <v>66.23999999999999</v>
+        <v>82.95</v>
       </c>
       <c r="E2">
-        <v>55.23</v>
+        <v>46.42</v>
       </c>
       <c r="F2">
-        <v>100.76</v>
+        <v>105.44</v>
       </c>
       <c r="G2">
-        <v>62.41</v>
+        <v>79.95</v>
       </c>
       <c r="H2">
-        <v>51.44</v>
+        <v>57.44</v>
       </c>
       <c r="I2">
-        <v>31.08</v>
+        <v>33.37</v>
       </c>
       <c r="J2">
-        <v>49.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>52.69</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>110.85</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>33.52</v>
+        <v>35.27</v>
       </c>
       <c r="C3">
-        <v>30.39</v>
+        <v>36.16</v>
       </c>
       <c r="D3">
-        <v>37.06</v>
+        <v>72.97</v>
       </c>
       <c r="E3">
-        <v>16.67</v>
+        <v>17.26</v>
       </c>
       <c r="F3">
-        <v>72.77</v>
+        <v>56.14</v>
       </c>
       <c r="G3">
-        <v>62.25</v>
+        <v>65.36</v>
       </c>
       <c r="H3">
-        <v>33.25</v>
+        <v>39.72</v>
       </c>
       <c r="I3">
-        <v>15.93</v>
+        <v>19.62</v>
       </c>
       <c r="J3">
-        <v>25.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>30.42</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>62.95</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>10.54</v>
+        <v>44.74</v>
       </c>
       <c r="C4">
-        <v>44.93</v>
+        <v>24.07</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>56.64</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>49.21</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>39.08</v>
+        <v>36.28</v>
       </c>
       <c r="I4">
-        <v>43.85</v>
+        <v>18.79</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>30.54</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>29.71</v>
+        <v>26.74</v>
       </c>
       <c r="C5">
-        <v>59.19</v>
+        <v>49.68</v>
       </c>
       <c r="D5">
-        <v>82.86</v>
+        <v>44.05</v>
       </c>
       <c r="E5">
-        <v>51.67</v>
+        <v>22.14</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>87.56999999999999</v>
+        <v>97.58</v>
       </c>
       <c r="H5">
-        <v>21.71</v>
+        <v>33.39</v>
       </c>
       <c r="I5">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>130.03</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>12.17</v>
+        <v>38.24</v>
       </c>
       <c r="C6">
-        <v>9.75</v>
+        <v>57.1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>140.69</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -713,958 +767,1228 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>50.41</v>
+        <v>54.01</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>38.32</v>
       </c>
       <c r="I6">
-        <v>24.85</v>
+        <v>10.65</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>31.63</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>88.34999999999999</v>
+        <v>44.13</v>
       </c>
       <c r="C7">
-        <v>10.67</v>
+        <v>38.87</v>
       </c>
       <c r="D7">
-        <v>69.31999999999999</v>
+        <v>100.61</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>22.14</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>36.9</v>
       </c>
       <c r="G7">
-        <v>32.29</v>
+        <v>34.6</v>
       </c>
       <c r="H7">
-        <v>36.79</v>
+        <v>38.39</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="J7">
+        <v>32.8</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>33.04</v>
+      </c>
+      <c r="C8">
+        <v>21.95</v>
+      </c>
+      <c r="D8">
+        <v>142.07</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>310</v>
+      </c>
+      <c r="G8">
+        <v>114.29</v>
+      </c>
+      <c r="H8">
+        <v>50.61</v>
+      </c>
+      <c r="I8">
+        <v>22.48</v>
+      </c>
+      <c r="J8">
+        <v>59.85</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>60.96</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>26.98</v>
+      </c>
+      <c r="C9">
+        <v>12.33</v>
+      </c>
+      <c r="D9">
+        <v>15.77</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>75.06</v>
+      </c>
+      <c r="H9">
+        <v>33.07</v>
+      </c>
+      <c r="I9">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="J9">
+        <v>49.21</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>123.9</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>38.18</v>
+      </c>
+      <c r="C10">
         <v>57.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>12.3</v>
-      </c>
-      <c r="C8">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="D8">
-        <v>23.68</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>516.67</v>
-      </c>
-      <c r="G8">
-        <v>33.33</v>
-      </c>
-      <c r="H8">
-        <v>42.18</v>
-      </c>
-      <c r="I8">
-        <v>34.31</v>
-      </c>
-      <c r="J8">
-        <v>69.81999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>10.81</v>
-      </c>
-      <c r="C9">
-        <v>7.19</v>
-      </c>
-      <c r="D9">
-        <v>19.11</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>87.56999999999999</v>
-      </c>
-      <c r="H9">
-        <v>30.19</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>38.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>59.39</v>
-      </c>
-      <c r="C10">
-        <v>119.6</v>
-      </c>
       <c r="D10">
-        <v>63.94</v>
+        <v>54.81</v>
       </c>
       <c r="E10">
-        <v>60.19</v>
+        <v>25.8</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>132.48</v>
+        <v>90.84</v>
       </c>
       <c r="H10">
-        <v>72.48</v>
+        <v>48.81</v>
       </c>
       <c r="I10">
-        <v>29.73</v>
+        <v>43.32</v>
       </c>
       <c r="J10">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>121.93</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>53.76</v>
+        <v>62.48</v>
       </c>
       <c r="C11">
-        <v>86.89</v>
+        <v>74.87</v>
       </c>
       <c r="D11">
-        <v>107.5</v>
+        <v>71.06</v>
       </c>
       <c r="E11">
-        <v>37.07</v>
+        <v>45.68</v>
       </c>
       <c r="F11">
-        <v>143.52</v>
+        <v>153.77</v>
       </c>
       <c r="G11">
-        <v>59.81</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="H11">
-        <v>63.36</v>
+        <v>59.53</v>
       </c>
       <c r="I11">
-        <v>39.61</v>
+        <v>41.96</v>
       </c>
       <c r="J11">
-        <v>88.40000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>62.71</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>150.8</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>30.06</v>
+        <v>40.65</v>
       </c>
       <c r="C12">
-        <v>52.58</v>
+        <v>34.29</v>
       </c>
       <c r="D12">
-        <v>123.37</v>
+        <v>63.45</v>
       </c>
       <c r="E12">
-        <v>155</v>
+        <v>107.02</v>
       </c>
       <c r="F12">
-        <v>86.11</v>
+        <v>184.52</v>
       </c>
       <c r="G12">
-        <v>24.6</v>
+        <v>47.45</v>
       </c>
       <c r="H12">
-        <v>60.71</v>
+        <v>48.56</v>
       </c>
       <c r="I12">
-        <v>25.62</v>
+        <v>47.21</v>
       </c>
       <c r="J12">
-        <v>80.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>41.52</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>63.04</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="C13">
-        <v>79.31</v>
+        <v>53.98</v>
       </c>
       <c r="D13">
-        <v>121.86</v>
+        <v>78.34</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>147.62</v>
+        <v>221.43</v>
       </c>
       <c r="G13">
-        <v>27.93</v>
+        <v>23.94</v>
       </c>
       <c r="H13">
-        <v>78.12</v>
+        <v>63.92</v>
       </c>
       <c r="I13">
-        <v>40.68</v>
+        <v>21.51</v>
       </c>
       <c r="J13">
-        <v>187.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>80.52</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>238.11</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>52.07</v>
+        <v>61.43</v>
       </c>
       <c r="C14">
-        <v>148.1</v>
+        <v>119.73</v>
       </c>
       <c r="D14">
-        <v>210.76</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>114.81</v>
+        <v>49.21</v>
       </c>
       <c r="G14">
-        <v>98.41</v>
+        <v>73.81</v>
       </c>
       <c r="H14">
-        <v>49.08</v>
+        <v>49.27</v>
       </c>
       <c r="I14">
-        <v>28.88</v>
+        <v>22.98</v>
       </c>
       <c r="J14">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>63.27</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>53.4</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>53.08</v>
+        <v>33.68</v>
       </c>
       <c r="C15">
-        <v>86.73</v>
+        <v>97.7</v>
       </c>
       <c r="D15">
-        <v>25.33</v>
+        <v>56.01</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>103.33</v>
       </c>
       <c r="F15">
-        <v>147.62</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="G15">
-        <v>62</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="H15">
-        <v>25.24</v>
+        <v>36.06</v>
       </c>
       <c r="I15">
-        <v>43.09</v>
+        <v>65.11</v>
       </c>
       <c r="J15">
-        <v>18.79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>24.16</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>265.71</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>76.7</v>
+        <v>109.58</v>
       </c>
       <c r="C16">
-        <v>57.71</v>
+        <v>61.25</v>
       </c>
       <c r="D16">
-        <v>85.20999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="E16">
-        <v>51.67</v>
+        <v>22.14</v>
       </c>
       <c r="F16">
-        <v>258.33</v>
+        <v>221.43</v>
       </c>
       <c r="G16">
-        <v>89.86</v>
+        <v>134.78</v>
       </c>
       <c r="H16">
-        <v>92.26000000000001</v>
+        <v>89.78</v>
       </c>
       <c r="I16">
-        <v>17.09</v>
+        <v>35.2</v>
       </c>
       <c r="J16">
-        <v>126.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>81.01000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>178.02</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>33.09</v>
+        <v>34.03</v>
       </c>
       <c r="C17">
-        <v>135.37</v>
+        <v>116.03</v>
       </c>
       <c r="D17">
-        <v>70.89</v>
+        <v>44.99</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>63.27</v>
       </c>
       <c r="G17">
-        <v>135.96</v>
+        <v>128.2</v>
       </c>
       <c r="H17">
-        <v>65.47</v>
+        <v>58.56</v>
       </c>
       <c r="I17">
-        <v>104.68</v>
+        <v>63.73</v>
       </c>
       <c r="J17">
-        <v>81.58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>93.23</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>138.04</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>56.75</v>
+        <v>52.3</v>
       </c>
       <c r="C18">
-        <v>27.52</v>
+        <v>36.33</v>
       </c>
       <c r="D18">
-        <v>53.52</v>
+        <v>63.87</v>
       </c>
       <c r="E18">
-        <v>52.79</v>
+        <v>48.64</v>
       </c>
       <c r="F18">
-        <v>147.62</v>
+        <v>145.51</v>
       </c>
       <c r="G18">
-        <v>36</v>
+        <v>40.12</v>
       </c>
       <c r="H18">
-        <v>54.66</v>
+        <v>72.66</v>
       </c>
       <c r="I18">
-        <v>25.11</v>
+        <v>28.2</v>
       </c>
       <c r="J18">
-        <v>40.64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>43.54</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>21.75</v>
+        <v>35.74</v>
       </c>
       <c r="C19">
-        <v>40.46</v>
+        <v>21.34</v>
       </c>
       <c r="D19">
-        <v>42.7</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="E19">
-        <v>60.19</v>
+        <v>98.89</v>
       </c>
       <c r="F19">
-        <v>258.33</v>
+        <v>166.07</v>
       </c>
       <c r="G19">
-        <v>23.48</v>
+        <v>60.39</v>
       </c>
       <c r="H19">
-        <v>52.99</v>
+        <v>76.08</v>
       </c>
       <c r="I19">
-        <v>45.99</v>
+        <v>41.18</v>
       </c>
       <c r="J19">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>53.91</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>65.02</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>52.13</v>
+        <v>34.82</v>
       </c>
       <c r="C20">
-        <v>54.16</v>
+        <v>33.42</v>
       </c>
       <c r="D20">
-        <v>17.26</v>
+        <v>7.4</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>103.33</v>
+        <v>44.29</v>
       </c>
       <c r="G20">
-        <v>54.39</v>
+        <v>23.31</v>
       </c>
       <c r="H20">
-        <v>35.44</v>
+        <v>53.75</v>
       </c>
       <c r="I20">
-        <v>13.77</v>
+        <v>17.34</v>
       </c>
       <c r="J20">
-        <v>56.96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>38.36</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>65.43000000000001</v>
+        <v>71.38</v>
       </c>
       <c r="C21">
-        <v>12.86</v>
+        <v>31.24</v>
       </c>
       <c r="D21">
-        <v>83.59</v>
+        <v>108.6</v>
       </c>
       <c r="E21">
-        <v>120.39</v>
+        <v>103.19</v>
       </c>
       <c r="F21">
-        <v>413.33</v>
+        <v>310</v>
       </c>
       <c r="G21">
-        <v>34.44</v>
+        <v>73.81</v>
       </c>
       <c r="H21">
-        <v>29.76</v>
+        <v>64.92</v>
       </c>
       <c r="I21">
-        <v>42.42</v>
+        <v>35.57</v>
       </c>
       <c r="J21">
-        <v>40.13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>51.6</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>130.03</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>170.52</v>
+        <v>109.62</v>
       </c>
       <c r="C22">
-        <v>16.56</v>
+        <v>69.55</v>
       </c>
       <c r="D22">
-        <v>130.57</v>
+        <v>111.91</v>
       </c>
       <c r="E22">
-        <v>234.37</v>
+        <v>100.44</v>
       </c>
       <c r="F22">
-        <v>103.33</v>
+        <v>44.29</v>
       </c>
       <c r="G22">
-        <v>17.51</v>
+        <v>45.04</v>
       </c>
       <c r="H22">
-        <v>147.62</v>
+        <v>165.13</v>
       </c>
       <c r="I22">
-        <v>25.79</v>
+        <v>13.71</v>
       </c>
       <c r="J22">
-        <v>63.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>41.09</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>121.93</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>14.46</v>
+        <v>35.29</v>
       </c>
       <c r="C23">
-        <v>10.01</v>
+        <v>4.29</v>
       </c>
       <c r="D23">
-        <v>42.06</v>
+        <v>54.07</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>30.45</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>55.36</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="H23">
-        <v>10.67</v>
+        <v>54.9</v>
       </c>
       <c r="I23">
         <v>37.77</v>
       </c>
       <c r="J23">
-        <v>20.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>34.73</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>71.73</v>
+        <v>64.81</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>47.58</v>
       </c>
       <c r="D24">
-        <v>45.2</v>
+        <v>38.75</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>129.17</v>
+        <v>221.43</v>
       </c>
       <c r="G24">
-        <v>165.33</v>
+        <v>70.86</v>
       </c>
       <c r="H24">
-        <v>28.7</v>
+        <v>50.44</v>
       </c>
       <c r="I24">
-        <v>8.380000000000001</v>
+        <v>51.63</v>
       </c>
       <c r="J24">
-        <v>78.48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>61.66</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>37.46</v>
+        <v>41.28</v>
       </c>
       <c r="C25">
-        <v>43.13</v>
+        <v>53.14</v>
       </c>
       <c r="D25">
-        <v>18.52</v>
+        <v>55.56</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="F25">
-        <v>64.58</v>
+        <v>166.07</v>
       </c>
       <c r="G25">
-        <v>20.67</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H25">
-        <v>67.59999999999999</v>
+        <v>55.58</v>
       </c>
       <c r="I25">
-        <v>9.73</v>
+        <v>5.6</v>
       </c>
       <c r="J25">
-        <v>11.61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>24.88</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>162.39</v>
+        <v>117.1</v>
       </c>
       <c r="C26">
-        <v>156.73</v>
+        <v>108.76</v>
       </c>
       <c r="D26">
-        <v>99.64</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="E26">
-        <v>180.64</v>
+        <v>117.44</v>
       </c>
       <c r="F26">
-        <v>108.14</v>
+        <v>123.59</v>
       </c>
       <c r="G26">
-        <v>115.16</v>
+        <v>105.38</v>
       </c>
       <c r="H26">
-        <v>68.08</v>
+        <v>56.98</v>
       </c>
       <c r="I26">
-        <v>58.42</v>
+        <v>47.89</v>
       </c>
       <c r="J26">
-        <v>51.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>65.7</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>158.74</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>127.77</v>
+        <v>125.94</v>
       </c>
       <c r="C27">
-        <v>68.13</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="D27">
-        <v>78.47</v>
+        <v>113.55</v>
       </c>
       <c r="E27">
-        <v>170.55</v>
+        <v>193.48</v>
       </c>
       <c r="F27">
-        <v>271.93</v>
+        <v>209.77</v>
       </c>
       <c r="G27">
-        <v>295.24</v>
+        <v>234.99</v>
       </c>
       <c r="H27">
-        <v>121.16</v>
+        <v>91.23999999999999</v>
       </c>
       <c r="I27">
-        <v>195.85</v>
+        <v>118.91</v>
       </c>
       <c r="J27">
-        <v>48.44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>69.2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>199</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>295.4</v>
+        <v>153.11</v>
       </c>
       <c r="C28">
-        <v>345.53</v>
+        <v>168.94</v>
       </c>
       <c r="D28">
-        <v>116.6</v>
+        <v>92.39</v>
       </c>
       <c r="E28">
-        <v>473.61</v>
+        <v>202.98</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>110.71</v>
       </c>
       <c r="G28">
-        <v>70.78</v>
+        <v>72.8</v>
       </c>
       <c r="H28">
-        <v>35.17</v>
+        <v>36.38</v>
       </c>
       <c r="I28">
-        <v>9.970000000000001</v>
+        <v>12.82</v>
       </c>
       <c r="J28">
-        <v>26.16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>28.03</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>171.39</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>110.94</v>
+        <v>111.66</v>
       </c>
       <c r="C29">
-        <v>168.6</v>
+        <v>156.17</v>
       </c>
       <c r="D29">
-        <v>129.96</v>
+        <v>111.4</v>
       </c>
       <c r="E29">
-        <v>292.78</v>
+        <v>206.67</v>
       </c>
       <c r="F29">
-        <v>51.67</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="G29">
-        <v>109.6</v>
+        <v>157.21</v>
       </c>
       <c r="H29">
-        <v>93.29000000000001</v>
+        <v>73.37</v>
       </c>
       <c r="I29">
-        <v>68.83</v>
+        <v>58.72</v>
       </c>
       <c r="J29">
-        <v>62.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>112.05</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>233.57</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>148.47</v>
+        <v>105.28</v>
       </c>
       <c r="C30">
-        <v>111.28</v>
+        <v>62.68</v>
       </c>
       <c r="D30">
-        <v>238.19</v>
+        <v>128.1</v>
       </c>
       <c r="E30">
-        <v>60.19</v>
+        <v>25.8</v>
       </c>
       <c r="F30">
-        <v>258.33</v>
+        <v>147.62</v>
       </c>
       <c r="G30">
-        <v>186</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="H30">
-        <v>65.23999999999999</v>
+        <v>35.18</v>
       </c>
       <c r="I30">
-        <v>31.11</v>
+        <v>33.33</v>
       </c>
       <c r="J30">
-        <v>131.91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>113.07</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>249.61</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>90.87</v>
+        <v>83.11</v>
       </c>
       <c r="C31">
-        <v>42.1</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="D31">
-        <v>23.07</v>
+        <v>90.55</v>
       </c>
       <c r="E31">
-        <v>60.19</v>
+        <v>73.09</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>55.36</v>
       </c>
       <c r="G31">
-        <v>64.58</v>
+        <v>46.13</v>
       </c>
       <c r="H31">
-        <v>37.99</v>
+        <v>32.56</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>6.81</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>9.23</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>54.86</v>
+        <v>73.69</v>
       </c>
       <c r="C32">
-        <v>27.26</v>
+        <v>24.54</v>
       </c>
       <c r="D32">
-        <v>22.72</v>
+        <v>38.95</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>80.52</v>
       </c>
       <c r="G32">
-        <v>19.5</v>
+        <v>52.52</v>
       </c>
       <c r="H32">
-        <v>37.27</v>
+        <v>59.46</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>39.22</v>
       </c>
       <c r="J32">
-        <v>48.06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>51.5</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>60.96</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>40.16</v>
+        <v>59.98</v>
       </c>
       <c r="C33">
-        <v>48.38</v>
+        <v>34.82</v>
       </c>
       <c r="D33">
-        <v>63.1</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="E33">
-        <v>28.57</v>
+        <v>12.24</v>
       </c>
       <c r="F33">
-        <v>40.26</v>
+        <v>63.27</v>
       </c>
       <c r="G33">
-        <v>35.99</v>
+        <v>100.41</v>
       </c>
       <c r="H33">
-        <v>57.52</v>
+        <v>54.34</v>
       </c>
       <c r="I33">
-        <v>24.74</v>
+        <v>33.17</v>
       </c>
       <c r="J33">
-        <v>58.57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>55.58</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>175.13</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>46.85</v>
+        <v>75.44</v>
       </c>
       <c r="C34">
-        <v>56.78</v>
+        <v>42.18</v>
       </c>
       <c r="D34">
-        <v>57.04</v>
+        <v>60.18</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>17.71</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>123.11</v>
       </c>
       <c r="H34">
-        <v>12.45</v>
+        <v>33.54</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>39.75</v>
       </c>
       <c r="J34">
-        <v>38.99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>33.42</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>55.21</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>55.1</v>
+        <v>74.72</v>
       </c>
       <c r="C35">
-        <v>16.56</v>
+        <v>19.87</v>
       </c>
       <c r="D35">
-        <v>73.45</v>
+        <v>116.35</v>
       </c>
       <c r="E35">
-        <v>120.39</v>
+        <v>51.59</v>
       </c>
       <c r="F35">
-        <v>86.11</v>
+        <v>55.36</v>
       </c>
       <c r="G35">
-        <v>39.74</v>
+        <v>120.85</v>
       </c>
       <c r="H35">
-        <v>50.27</v>
+        <v>41.29</v>
       </c>
       <c r="I35">
-        <v>16.01</v>
+        <v>47.74</v>
       </c>
       <c r="J35">
-        <v>12.76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>27.34</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>17.8</v>
+        <v>20.41</v>
       </c>
       <c r="C36">
-        <v>65.56</v>
+        <v>28.1</v>
       </c>
       <c r="D36">
-        <v>70.31</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1673,240 +1997,312 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>83.78</v>
+        <v>95.75</v>
       </c>
       <c r="H36">
-        <v>103.49</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="I36">
-        <v>46.8</v>
+        <v>28.08</v>
       </c>
       <c r="J36">
-        <v>113.24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>84.93000000000001</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>370.39</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37">
-        <v>39.23</v>
+        <v>71.81</v>
       </c>
       <c r="C37">
         <v>57.41</v>
       </c>
       <c r="D37">
-        <v>47.71</v>
+        <v>132.9</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>68.89</v>
+        <v>206.67</v>
       </c>
       <c r="G37">
-        <v>21.09</v>
+        <v>54.23</v>
       </c>
       <c r="H37">
-        <v>61.03</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="I37">
-        <v>23.44</v>
+        <v>20.09</v>
       </c>
       <c r="J37">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>274.92</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>45.26</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="C38">
-        <v>38.92</v>
+        <v>54.77</v>
       </c>
       <c r="D38">
-        <v>44.57</v>
+        <v>123.61</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>23.39</v>
       </c>
       <c r="F38">
-        <v>95.38</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="G38">
-        <v>47.88</v>
+        <v>109.92</v>
       </c>
       <c r="H38">
-        <v>29.72</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="I38">
-        <v>23.7</v>
+        <v>31.64</v>
       </c>
       <c r="J38">
-        <v>55.41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>65.33</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39">
-        <v>53.78</v>
+        <v>116.69</v>
       </c>
       <c r="C39">
-        <v>42.86</v>
+        <v>116.33</v>
       </c>
       <c r="D39">
-        <v>45.18</v>
+        <v>171.76</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>55.36</v>
       </c>
       <c r="G39">
-        <v>51.03</v>
+        <v>138.25</v>
       </c>
       <c r="H39">
-        <v>30.05</v>
+        <v>93.72</v>
       </c>
       <c r="I39">
-        <v>38.65</v>
+        <v>25.12</v>
       </c>
       <c r="J39">
-        <v>99.09</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>163.8</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>94.45999999999999</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40">
-        <v>31.25</v>
+        <v>43.44</v>
       </c>
       <c r="C40">
-        <v>28.9</v>
+        <v>21.68</v>
       </c>
       <c r="D40">
+        <v>79.78</v>
+      </c>
+      <c r="E40">
         <v>22.14</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
-        <v>275.56</v>
+        <v>177.14</v>
       </c>
       <c r="G40">
-        <v>15.9</v>
+        <v>106.09</v>
       </c>
       <c r="H40">
-        <v>26.63</v>
+        <v>68.48</v>
       </c>
       <c r="I40">
-        <v>55.58</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="J40">
-        <v>32.29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>62.28</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B41">
-        <v>54.72</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="D41">
-        <v>66.34999999999999</v>
+        <v>105.79</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>103.33</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>29.52</v>
       </c>
       <c r="H41">
-        <v>13.18</v>
+        <v>37.28</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>38.27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>43.74</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>260.07</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>56.31</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="C42">
-        <v>83.87</v>
+        <v>54.64</v>
       </c>
       <c r="D42">
-        <v>62.02</v>
+        <v>148.33</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>129.17</v>
+        <v>55.36</v>
       </c>
       <c r="G42">
-        <v>91.18000000000001</v>
+        <v>148.86</v>
       </c>
       <c r="H42">
-        <v>73.95999999999999</v>
+        <v>82.98</v>
       </c>
       <c r="I42">
-        <v>23.83</v>
+        <v>25.47</v>
       </c>
       <c r="J42">
-        <v>65.17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>39.9</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>17.66</v>
       </c>
       <c r="C43">
-        <v>42.47</v>
+        <v>32.35</v>
       </c>
       <c r="D43">
-        <v>30.04</v>
+        <v>118.95</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>84.88</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>55.36</v>
       </c>
       <c r="G43">
-        <v>121.57</v>
+        <v>117.23</v>
       </c>
       <c r="H43">
-        <v>12.57</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="I43">
-        <v>5.76</v>
+        <v>49.8</v>
       </c>
       <c r="J43">
-        <v>23.48</v>
+        <v>100.65</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
